--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Fn1-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H2">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J2">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50017711614299</v>
+        <v>22.906497</v>
       </c>
       <c r="N2">
-        <v>1.50017711614299</v>
+        <v>68.719491</v>
       </c>
       <c r="O2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P2">
-        <v>0.5686675147019691</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q2">
-        <v>28.49834791804711</v>
+        <v>500.501660413694</v>
       </c>
       <c r="R2">
-        <v>28.49834791804711</v>
+        <v>4504.514943723247</v>
       </c>
       <c r="S2">
-        <v>0.02538322931777062</v>
+        <v>0.04741929247156782</v>
       </c>
       <c r="T2">
-        <v>0.02538322931777062</v>
+        <v>0.04741929247156782</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>18.9966555357926</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H3">
-        <v>18.9966555357926</v>
+        <v>65.549306</v>
       </c>
       <c r="I3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J3">
-        <v>0.04463632731170449</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.1378795291873</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N3">
-        <v>1.1378795291873</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P3">
-        <v>0.4313324852980309</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q3">
-        <v>21.615905457201</v>
+        <v>2.904256684660888</v>
       </c>
       <c r="R3">
-        <v>21.615905457201</v>
+        <v>26.138310161948</v>
       </c>
       <c r="S3">
-        <v>0.01925309799393387</v>
+        <v>0.0002751595210066011</v>
       </c>
       <c r="T3">
-        <v>0.01925309799393387</v>
+        <v>0.0002751595210066011</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>379.954067822278</v>
+        <v>21.84976866666667</v>
       </c>
       <c r="H4">
-        <v>379.954067822278</v>
+        <v>65.549306</v>
       </c>
       <c r="I4">
-        <v>0.8927757890210728</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="J4">
-        <v>0.8927757890210728</v>
+        <v>0.05020018890879543</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50017711614299</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N4">
-        <v>1.50017711614299</v>
+        <v>3.631285</v>
       </c>
       <c r="O4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P4">
-        <v>0.5686675147019691</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q4">
-        <v>569.998397732423</v>
+        <v>26.44757907091222</v>
       </c>
       <c r="R4">
-        <v>569.998397732423</v>
+        <v>238.02821163821</v>
       </c>
       <c r="S4">
-        <v>0.507692589128703</v>
+        <v>0.002505736916221005</v>
       </c>
       <c r="T4">
-        <v>0.507692589128703</v>
+        <v>0.002505736916221005</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>379.954067822278</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H5">
-        <v>379.954067822278</v>
+        <v>1155.157411</v>
       </c>
       <c r="I5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J5">
-        <v>0.8927757890210728</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1378795291873</v>
+        <v>22.906497</v>
       </c>
       <c r="N5">
-        <v>1.1378795291873</v>
+        <v>68.719491</v>
       </c>
       <c r="O5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="P5">
-        <v>0.4313324852980309</v>
+        <v>0.9446038650914245</v>
       </c>
       <c r="Q5">
-        <v>432.3419558064131</v>
+        <v>8820.20325653309</v>
       </c>
       <c r="R5">
-        <v>432.3419558064131</v>
+        <v>79381.82930879781</v>
       </c>
       <c r="S5">
-        <v>0.3850831998923698</v>
+        <v>0.8356571635237158</v>
       </c>
       <c r="T5">
-        <v>0.3850831998923698</v>
+        <v>0.8356571635237158</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>26.63661054454</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H6">
-        <v>26.63661054454</v>
+        <v>1155.157411</v>
       </c>
       <c r="I6">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J6">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.50017711614299</v>
+        <v>0.1329193333333333</v>
       </c>
       <c r="N6">
-        <v>1.50017711614299</v>
+        <v>0.3987579999999999</v>
       </c>
       <c r="O6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="P6">
-        <v>0.5686675147019691</v>
+        <v>0.005481244732096839</v>
       </c>
       <c r="Q6">
-        <v>39.95963359053198</v>
+        <v>51.18091765505977</v>
       </c>
       <c r="R6">
-        <v>39.95963359053198</v>
+        <v>460.628258895538</v>
       </c>
       <c r="S6">
-        <v>0.03559169625549542</v>
+        <v>0.004849060642960667</v>
       </c>
       <c r="T6">
-        <v>0.03559169625549542</v>
+        <v>0.004849060642960667</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>26.63661054454</v>
+        <v>385.0524703333334</v>
       </c>
       <c r="H7">
-        <v>26.63661054454</v>
+        <v>1155.157411</v>
       </c>
       <c r="I7">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="J7">
-        <v>0.06258788366722257</v>
+        <v>0.8846641374295412</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.1378795291873</v>
+        <v>1.210428333333333</v>
       </c>
       <c r="N7">
-        <v>1.1378795291873</v>
+        <v>3.631285</v>
       </c>
       <c r="O7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="P7">
-        <v>0.4313324852980309</v>
+        <v>0.04991489017647865</v>
       </c>
       <c r="Q7">
-        <v>30.30925386556665</v>
+        <v>466.0784199114595</v>
       </c>
       <c r="R7">
-        <v>30.30925386556665</v>
+        <v>4194.705779203136</v>
       </c>
       <c r="S7">
-        <v>0.02699618741172714</v>
+        <v>0.04415791326286477</v>
       </c>
       <c r="T7">
-        <v>0.02699618741172714</v>
+        <v>0.04415791326286476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>28.350479</v>
+      </c>
+      <c r="H8">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I8">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J8">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>22.906497</v>
+      </c>
+      <c r="N8">
+        <v>68.719491</v>
+      </c>
+      <c r="O8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="P8">
+        <v>0.9446038650914245</v>
+      </c>
+      <c r="Q8">
+        <v>649.410162162063</v>
+      </c>
+      <c r="R8">
+        <v>5844.691459458567</v>
+      </c>
+      <c r="S8">
+        <v>0.06152740909614091</v>
+      </c>
+      <c r="T8">
+        <v>0.06152740909614091</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>28.350479</v>
+      </c>
+      <c r="H9">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I9">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J9">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1329193333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.3987579999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="P9">
+        <v>0.005481244732096839</v>
+      </c>
+      <c r="Q9">
+        <v>3.768326768360665</v>
+      </c>
+      <c r="R9">
+        <v>33.91494091524599</v>
+      </c>
+      <c r="S9">
+        <v>0.0003570245681295712</v>
+      </c>
+      <c r="T9">
+        <v>0.0003570245681295712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>28.350479</v>
+      </c>
+      <c r="H10">
+        <v>85.05143699999999</v>
+      </c>
+      <c r="I10">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="J10">
+        <v>0.06513567366166337</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.210428333333333</v>
+      </c>
+      <c r="N10">
+        <v>3.631285</v>
+      </c>
+      <c r="O10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="P10">
+        <v>0.04991489017647865</v>
+      </c>
+      <c r="Q10">
+        <v>34.31622304517167</v>
+      </c>
+      <c r="R10">
+        <v>308.846007406545</v>
+      </c>
+      <c r="S10">
+        <v>0.00325123999739288</v>
+      </c>
+      <c r="T10">
+        <v>0.00325123999739288</v>
       </c>
     </row>
   </sheetData>
